--- a/CLEAN/JuneSales2024_clean.xlsx
+++ b/CLEAN/JuneSales2024_clean.xlsx
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0010173</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -598,7 +598,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0010174</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -668,7 +668,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0010175</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -738,7 +738,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0010176</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -812,7 +812,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0010177</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -882,7 +882,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0010178</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -952,7 +952,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0010179</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1022,7 +1022,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0010180</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0010181</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1162,7 +1162,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0010182</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1232,7 +1232,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0010183</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1306,7 +1306,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0010184</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1376,7 +1376,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0010185</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1450,7 +1450,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0010186</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1520,7 +1520,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0010187</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1590,7 +1590,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0010188</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1660,7 +1660,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0010189</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1730,7 +1730,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0010190</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1804,7 +1804,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0010191</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1874,7 +1874,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0010192</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1948,7 +1948,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0010193</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2018,7 +2018,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0010194</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2088,7 +2088,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0010195</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2158,7 +2158,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0010196</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2228,7 +2228,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0010197</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2298,7 +2298,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0010198</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2368,7 +2368,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0010199</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2438,7 +2438,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0010200</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2508,7 +2508,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0010201</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2578,7 +2578,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0010202</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2652,7 +2652,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0010203</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2722,7 +2722,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0010204</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2792,7 +2792,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0010205</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2862,7 +2862,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0010206</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2932,7 +2932,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0010207</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3002,7 +3002,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0010208</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3072,7 +3072,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0010209</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3146,7 +3146,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0010210</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3216,7 +3216,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0010211</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3286,7 +3286,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0010212</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3356,7 +3356,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0010213</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3426,7 +3426,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0010214</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3496,7 +3496,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0010215</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3566,7 +3566,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0010216</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3636,7 +3636,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0010217</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3706,7 +3706,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0010218</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3776,7 +3776,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0010219</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3846,7 +3846,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0010220</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3916,7 +3916,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0010221</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3986,7 +3986,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0010222</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4056,7 +4056,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0010223</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4126,7 +4126,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0010224</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4196,7 +4196,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0010225</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4266,7 +4266,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0010226</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4336,7 +4336,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0010227</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4406,7 +4406,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0010228</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4480,7 +4480,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0010229</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4550,7 +4550,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0010230</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4620,7 +4620,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0010231</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4694,7 +4694,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0010232</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4764,7 +4764,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0010233</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4834,7 +4834,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0010234</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4904,7 +4904,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0010235</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4974,7 +4974,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0010236</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5044,7 +5044,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0010237</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5114,7 +5114,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0010238</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5184,7 +5184,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0010239</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5254,7 +5254,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0010240</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5324,7 +5324,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0010241</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5394,7 +5394,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0010242</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5464,7 +5464,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0010243</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5534,7 +5534,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0010244</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5604,7 +5604,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0010245</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5674,7 +5674,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0010246</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5744,7 +5744,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0010247</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5814,7 +5814,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0010248</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5888,7 +5888,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0010249</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5958,7 +5958,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0010250</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -6028,7 +6028,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0010251</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -6098,7 +6098,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0010252</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -6168,7 +6168,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0010253</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6238,7 +6238,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0010254</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6308,7 +6308,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0010255</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6378,7 +6378,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0010256</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6448,7 +6448,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0010257</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6518,7 +6518,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0010258</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6588,7 +6588,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0010259</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6658,7 +6658,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0010260</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6728,7 +6728,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0010261</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6798,7 +6798,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0010262</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6868,7 +6868,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0010263</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6938,7 +6938,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0010264</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -7008,7 +7008,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0010265</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -7078,7 +7078,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0010266</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -7148,7 +7148,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0010267</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7218,7 +7218,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0010268</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7288,7 +7288,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0010269</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7358,7 +7358,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0010270</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7428,7 +7428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0010271</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7502,7 +7502,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0010272</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7572,7 +7572,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0010273</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7642,7 +7642,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0010274</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7712,7 +7712,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0010275</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7782,7 +7782,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0010276</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7852,7 +7852,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0010277</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7922,7 +7922,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0010278</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7992,7 +7992,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0010279</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -8062,7 +8062,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0010280</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -8132,7 +8132,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0010281</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8202,7 +8202,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0010282</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8276,7 +8276,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0010283</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8346,7 +8346,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0010284</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8416,7 +8416,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0010285</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8486,7 +8486,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0010286</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8556,7 +8556,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0010287</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8626,7 +8626,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0010288</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8700,7 +8700,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0010289</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8770,7 +8770,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0010290</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8840,7 +8840,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0010291</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8910,7 +8910,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0010292</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8980,7 +8980,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0010293</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -9050,7 +9050,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0010294</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -9120,7 +9120,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0010295</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -9190,7 +9190,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0010296</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -9260,7 +9260,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0010297</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9330,7 +9330,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0010298</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -9400,7 +9400,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0010299</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -9470,7 +9470,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0010300</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9540,7 +9540,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0010301</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -9610,7 +9610,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0010302</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9680,7 +9680,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0010303</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9754,7 +9754,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0010304</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9828,7 +9828,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0010305</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9898,7 +9898,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0010306</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9968,7 +9968,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0010307</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -10038,7 +10038,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0010308</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -10108,7 +10108,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0010309</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -10178,7 +10178,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0010310</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -10248,7 +10248,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0010311</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -10322,7 +10322,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0010312</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -10392,7 +10392,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0010313</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -10462,7 +10462,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0010314</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -10532,7 +10532,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0010315</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -10602,7 +10602,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0010316</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -10672,7 +10672,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0010317</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -10746,7 +10746,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0010318</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10816,7 +10816,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0010319</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10886,7 +10886,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0010320</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -10956,7 +10956,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0010321</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -11026,7 +11026,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0010322</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -11096,7 +11096,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0010323</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -11170,7 +11170,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0010324</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -11240,7 +11240,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0010325</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -11314,7 +11314,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0010326</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -11388,7 +11388,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0010327</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -11458,7 +11458,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0010328</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -11528,7 +11528,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0010329</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -11598,7 +11598,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0010330</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -11668,7 +11668,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0010331</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -11738,7 +11738,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0010332</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11808,7 +11808,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0010333</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11878,7 +11878,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0010334</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -11952,7 +11952,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0010335</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -12026,7 +12026,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0010336</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -12096,7 +12096,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0010337</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -12166,7 +12166,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0010338</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -12236,7 +12236,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0010339</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -12306,7 +12306,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0010340</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -12376,7 +12376,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0010341</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -12446,7 +12446,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0010342</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -12516,7 +12516,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0010343</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -12586,7 +12586,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0010344</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -12656,7 +12656,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0010345</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -12726,7 +12726,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0010346</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -12796,7 +12796,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0010347</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -12866,7 +12866,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0010348</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -12936,7 +12936,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0010349</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -13006,7 +13006,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0010350</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -13076,7 +13076,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0010351</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -13146,7 +13146,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0010352</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -13216,7 +13216,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0010353</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -13286,7 +13286,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0010354</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -13356,7 +13356,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0010355</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -13426,7 +13426,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0010356</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -13496,7 +13496,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0010357</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -13566,7 +13566,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0010358</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -13636,7 +13636,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0010359</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -13706,7 +13706,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0010360</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -13776,7 +13776,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0010361</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -13846,7 +13846,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0010362</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -13916,7 +13916,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0010363</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -13986,7 +13986,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0010364</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -14056,7 +14056,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0010365</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -14126,7 +14126,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0010366</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -14196,7 +14196,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0010367</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14266,7 +14266,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0010368</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -14340,7 +14340,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0010369</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -14410,7 +14410,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0010370</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -14480,7 +14480,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0010371</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -14550,7 +14550,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0010372</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -14620,7 +14620,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0010373</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -14690,7 +14690,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0010374</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -14760,7 +14760,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0010375</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -14834,7 +14834,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0010376</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -14904,7 +14904,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0010377</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -14974,7 +14974,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0010378</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -15044,7 +15044,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0010379</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -15114,7 +15114,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0010380</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -15184,7 +15184,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0010381</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -15254,7 +15254,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0010382</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -15324,7 +15324,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0010383</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -15394,7 +15394,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0010384</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -15464,7 +15464,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0010385</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -15534,7 +15534,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0010386</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -15604,7 +15604,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0010387</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -15674,7 +15674,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0010388</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -15744,7 +15744,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0010389</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -15818,7 +15818,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0010390</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -15888,7 +15888,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0010391</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -15958,7 +15958,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0010392</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -16032,7 +16032,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0010393</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -16102,7 +16102,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0010394</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -16172,7 +16172,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0010395</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -16242,7 +16242,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0010396</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -16312,7 +16312,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0010397</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -16382,7 +16382,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0010398</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -16456,7 +16456,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0010399</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -16526,7 +16526,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0010400</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -16596,7 +16596,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0010401</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -16666,7 +16666,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0010402</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -16736,7 +16736,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0010403</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -16806,7 +16806,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0010404</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -16876,7 +16876,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0010405</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -16946,7 +16946,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0010406</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -17016,7 +17016,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0010407</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -17086,7 +17086,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0010408</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -17156,7 +17156,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0010409</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -17226,7 +17226,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0010410</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -17296,7 +17296,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0010411</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -17366,7 +17366,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0010412</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -17436,7 +17436,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0010413</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -17506,7 +17506,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0010414</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -17576,7 +17576,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0010415</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -17646,7 +17646,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0010416</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -17716,7 +17716,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0010417</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -17786,7 +17786,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0010418</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -17856,7 +17856,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0010419</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -17926,7 +17926,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0010420</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -17996,7 +17996,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0010421</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -18066,7 +18066,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0010422</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -18136,7 +18136,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0010423</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -18206,7 +18206,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0010424</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -18276,7 +18276,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0010425</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -18346,7 +18346,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0010426</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -18416,7 +18416,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0010427</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -18486,7 +18486,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0010428</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -18556,7 +18556,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0010429</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -18626,7 +18626,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0010430</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -18700,7 +18700,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0010431</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -18770,7 +18770,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0010432</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -18840,7 +18840,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0010433</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -18910,7 +18910,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0010434</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -18980,7 +18980,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0010435</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -19050,7 +19050,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0010436</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -19124,7 +19124,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0010437</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -19194,7 +19194,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0010438</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -19264,7 +19264,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0010439</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -19334,7 +19334,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0010440</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -19404,7 +19404,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0010441</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -19474,7 +19474,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0010442</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -19544,7 +19544,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0010443</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -19614,7 +19614,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0010444</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -19684,7 +19684,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0010445</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -19754,7 +19754,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0010446</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -19824,7 +19824,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0010447</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -19894,7 +19894,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0010448</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -19964,7 +19964,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0010449</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -20034,7 +20034,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0010450</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -20108,7 +20108,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0010451</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -20178,7 +20178,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0010452</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -20248,7 +20248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0010453</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -20318,7 +20318,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0010454</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -20392,7 +20392,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0010455</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -20462,7 +20462,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0010456</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -20532,7 +20532,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0010457</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -20602,7 +20602,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0010458</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -20672,7 +20672,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0010459</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -20742,7 +20742,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0010460</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -20812,7 +20812,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0010461</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -20882,7 +20882,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0010462</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -20952,7 +20952,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0010463</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -21022,7 +21022,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0010464</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -21092,7 +21092,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0010465</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -21162,7 +21162,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0010466</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -21232,7 +21232,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0010467</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -21302,7 +21302,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0010468</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -21372,7 +21372,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0010469</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -21442,7 +21442,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0010470</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -21512,7 +21512,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0010471</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -21582,7 +21582,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0010472</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -21652,7 +21652,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0010473</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -21722,7 +21722,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0010474</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -21792,7 +21792,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0010475</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -21866,7 +21866,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0010476</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -21936,7 +21936,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0010477</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -22006,7 +22006,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0010478</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -22080,7 +22080,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0010479</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -22150,7 +22150,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0010480</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -22220,7 +22220,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0010481</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -22290,7 +22290,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0010482</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -22360,7 +22360,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0010483</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -22430,7 +22430,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0010484</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -22500,7 +22500,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0010485</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -22574,7 +22574,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0010486</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -22644,7 +22644,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0010487</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -22714,7 +22714,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0010488</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -22784,7 +22784,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0010489</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -22854,7 +22854,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0010490</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -22924,7 +22924,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0010491</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -22998,7 +22998,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0010492</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -23068,7 +23068,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0010493</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -23138,7 +23138,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0010494</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -23208,7 +23208,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0010495</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -23278,7 +23278,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0010496</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -23348,7 +23348,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0010497</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -23418,7 +23418,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0010498</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -23488,7 +23488,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0010499</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -23558,7 +23558,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0010500</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -23632,7 +23632,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0010501</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -23702,7 +23702,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0010502</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -23772,7 +23772,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0010503</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -23842,7 +23842,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0010504</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -23912,7 +23912,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0010505</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -23982,7 +23982,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0010506</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -24056,7 +24056,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0010507</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -24130,7 +24130,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0010508</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -24200,7 +24200,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0010509</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -24270,7 +24270,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0010510</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -24340,7 +24340,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0010511</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -24410,7 +24410,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0010512</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -24480,7 +24480,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0010513</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -24554,7 +24554,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0010514</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -24628,7 +24628,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0010515</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -24702,7 +24702,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0010516</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -24772,7 +24772,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0010517</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -24842,7 +24842,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0010518</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -24912,7 +24912,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0010519</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -24982,7 +24982,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0010520</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -25052,7 +25052,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0010521</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -25122,7 +25122,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0010522</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -25192,7 +25192,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0010523</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -25266,7 +25266,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0010524</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -25336,7 +25336,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0010525</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -25406,7 +25406,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0010526</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -25476,7 +25476,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0010527</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -25546,7 +25546,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0010528</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -25616,7 +25616,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0010529</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -25686,7 +25686,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0010530</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -25756,7 +25756,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0010531</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -25826,7 +25826,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0010532</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -25896,7 +25896,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0010533</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -25966,7 +25966,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0010534</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -26036,7 +26036,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0010535</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -26110,7 +26110,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0010536</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -26180,7 +26180,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0010537</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -26250,7 +26250,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0010538</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -26320,7 +26320,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0010539</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -26390,7 +26390,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0010540</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -26460,7 +26460,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0010541</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -26534,7 +26534,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0010542</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -26604,7 +26604,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0010543</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -26674,7 +26674,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0010544</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -26744,7 +26744,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0010545</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -26814,7 +26814,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0010546</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -26884,7 +26884,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0010547</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -26958,7 +26958,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0010548</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -27028,7 +27028,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0010549</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -27098,7 +27098,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0010550</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -27168,7 +27168,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0010551</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -27238,7 +27238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0010552</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -27308,7 +27308,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0010553</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -27382,7 +27382,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0010554</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -27456,7 +27456,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0010555</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -27530,7 +27530,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0010556</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -27600,7 +27600,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0010557</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -27670,7 +27670,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0010558</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -27740,7 +27740,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0010559</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -27810,7 +27810,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0010560</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -27884,7 +27884,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0010561</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -27954,7 +27954,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0010562</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -28028,7 +28028,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0010563</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -28098,7 +28098,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0010564</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -28168,7 +28168,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0010565</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -28238,7 +28238,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0010566</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -28312,7 +28312,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0010567</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -28382,7 +28382,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0010568</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -28452,7 +28452,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0010569</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -28522,7 +28522,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0010570</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -28592,7 +28592,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0010571</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -28662,7 +28662,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0010572</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -28732,7 +28732,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0010573</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -28802,7 +28802,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0010574</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -28872,7 +28872,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0010575</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -28942,7 +28942,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0010576</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -29012,7 +29012,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0010577</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -29082,7 +29082,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0010578</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -29152,7 +29152,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0010579</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -29222,7 +29222,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0010580</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -29292,7 +29292,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0010581</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -29362,7 +29362,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0010582</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -29432,7 +29432,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0010583</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -29506,7 +29506,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0010584</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -29576,7 +29576,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0010585</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -29646,7 +29646,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0010586</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -29716,7 +29716,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0010587</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -29790,7 +29790,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0010588</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -29860,7 +29860,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0010589</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -29930,7 +29930,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0010590</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -30000,7 +30000,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0010591</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -30070,7 +30070,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0010592</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -30140,7 +30140,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0010593</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -30214,7 +30214,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0010594</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -30284,7 +30284,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0010595</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -30354,7 +30354,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0010596</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -30424,7 +30424,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0010597</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -30498,7 +30498,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0010598</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -30568,7 +30568,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0010599</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -30638,7 +30638,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0010600</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -30708,7 +30708,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0010601</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -30778,7 +30778,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0010602</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -30848,7 +30848,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0010603</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -30918,7 +30918,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0010604</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -30988,7 +30988,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0010605</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -31058,7 +31058,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0010606</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -31128,7 +31128,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0010607</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -31198,7 +31198,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0010608</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -31268,7 +31268,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0010609</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -31338,7 +31338,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0010610</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -31408,7 +31408,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0010611</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -31478,7 +31478,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0010612</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -31548,7 +31548,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0010613</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -31618,7 +31618,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0010614</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -31692,7 +31692,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0010615</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -31766,7 +31766,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0010616</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -31836,7 +31836,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0010617</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -31906,7 +31906,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000446</t>
+          <t>ORD_0010618</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -31976,7 +31976,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000447</t>
+          <t>ORD_0010619</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -32046,7 +32046,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0010620</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -32116,7 +32116,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000449</t>
+          <t>ORD_0010621</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -32186,7 +32186,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0010622</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -32260,7 +32260,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0010623</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -32330,7 +32330,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000452</t>
+          <t>ORD_0010624</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -32400,7 +32400,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000453</t>
+          <t>ORD_0010625</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -32470,7 +32470,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000454</t>
+          <t>ORD_0010626</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -32540,7 +32540,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000455</t>
+          <t>ORD_0010627</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -32610,7 +32610,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000456</t>
+          <t>ORD_0010628</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -32680,7 +32680,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000457</t>
+          <t>ORD_0010629</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -32750,7 +32750,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000458</t>
+          <t>ORD_0010630</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -32820,7 +32820,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000459</t>
+          <t>ORD_0010631</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -32890,7 +32890,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000460</t>
+          <t>ORD_0010632</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -32960,7 +32960,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000461</t>
+          <t>ORD_0010633</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -33030,7 +33030,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000462</t>
+          <t>ORD_0010634</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -33100,7 +33100,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000463</t>
+          <t>ORD_0010635</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -33170,7 +33170,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000464</t>
+          <t>ORD_0010636</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -33240,7 +33240,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000465</t>
+          <t>ORD_0010637</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -33314,7 +33314,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000466</t>
+          <t>ORD_0010638</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -33384,7 +33384,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000467</t>
+          <t>ORD_0010639</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -33454,7 +33454,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000468</t>
+          <t>ORD_0010640</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -33524,7 +33524,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000469</t>
+          <t>ORD_0010641</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -33594,7 +33594,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000470</t>
+          <t>ORD_0010642</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -33664,7 +33664,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000471</t>
+          <t>ORD_0010643</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -33734,7 +33734,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000472</t>
+          <t>ORD_0010644</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -33804,7 +33804,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000473</t>
+          <t>ORD_0010645</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -33874,7 +33874,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000474</t>
+          <t>ORD_0010646</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -33944,7 +33944,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000475</t>
+          <t>ORD_0010647</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -34014,7 +34014,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000476</t>
+          <t>ORD_0010648</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -34084,7 +34084,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000477</t>
+          <t>ORD_0010649</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -34154,7 +34154,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000478</t>
+          <t>ORD_0010650</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -34224,7 +34224,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000479</t>
+          <t>ORD_0010651</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -34294,7 +34294,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000480</t>
+          <t>ORD_0010652</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -34368,7 +34368,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000481</t>
+          <t>ORD_0010653</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -34438,7 +34438,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000482</t>
+          <t>ORD_0010654</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -34508,7 +34508,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000483</t>
+          <t>ORD_0010655</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -34578,7 +34578,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000484</t>
+          <t>ORD_0010656</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -34648,7 +34648,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000485</t>
+          <t>ORD_0010657</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -34718,7 +34718,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000486</t>
+          <t>ORD_0010658</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -34788,7 +34788,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000487</t>
+          <t>ORD_0010659</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -34858,7 +34858,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000488</t>
+          <t>ORD_0010660</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -34928,7 +34928,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000489</t>
+          <t>ORD_0010661</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -34998,7 +34998,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000490</t>
+          <t>ORD_0010662</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -35068,7 +35068,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000491</t>
+          <t>ORD_0010663</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -35138,7 +35138,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000492</t>
+          <t>ORD_0010664</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -35208,7 +35208,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000493</t>
+          <t>ORD_0010665</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -35278,7 +35278,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000494</t>
+          <t>ORD_0010666</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -35352,7 +35352,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000495</t>
+          <t>ORD_0010667</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -35422,7 +35422,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000496</t>
+          <t>ORD_0010668</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -35492,7 +35492,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000497</t>
+          <t>ORD_0010669</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -35562,7 +35562,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000498</t>
+          <t>ORD_0010670</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -35632,7 +35632,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000499</t>
+          <t>ORD_0010671</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -35702,7 +35702,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000500</t>
+          <t>ORD_0010672</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -35772,7 +35772,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000501</t>
+          <t>ORD_0010673</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -35842,7 +35842,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000502</t>
+          <t>ORD_0010674</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -35912,7 +35912,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000503</t>
+          <t>ORD_0010675</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -35982,7 +35982,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000504</t>
+          <t>ORD_0010676</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -36056,7 +36056,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000505</t>
+          <t>ORD_0010677</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -36126,7 +36126,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000506</t>
+          <t>ORD_0010678</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -36196,7 +36196,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000507</t>
+          <t>ORD_0010679</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -36266,7 +36266,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000508</t>
+          <t>ORD_0010680</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -36336,7 +36336,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000509</t>
+          <t>ORD_0010681</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -36406,7 +36406,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000510</t>
+          <t>ORD_0010682</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -36476,7 +36476,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000511</t>
+          <t>ORD_0010683</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -36546,7 +36546,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000512</t>
+          <t>ORD_0010684</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -36616,7 +36616,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000513</t>
+          <t>ORD_0010685</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -36686,7 +36686,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000514</t>
+          <t>ORD_0010686</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -36756,7 +36756,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000515</t>
+          <t>ORD_0010687</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -36826,7 +36826,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000516</t>
+          <t>ORD_0010688</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -36896,7 +36896,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000517</t>
+          <t>ORD_0010689</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -36966,7 +36966,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000518</t>
+          <t>ORD_0010690</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -37040,7 +37040,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000519</t>
+          <t>ORD_0010691</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -37110,7 +37110,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000520</t>
+          <t>ORD_0010692</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -37180,7 +37180,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000521</t>
+          <t>ORD_0010693</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -37250,7 +37250,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000522</t>
+          <t>ORD_0010694</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -37320,7 +37320,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000523</t>
+          <t>ORD_0010695</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -37394,7 +37394,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000524</t>
+          <t>ORD_0010696</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -37464,7 +37464,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000525</t>
+          <t>ORD_0010697</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -37534,7 +37534,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000526</t>
+          <t>ORD_0010698</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -37604,7 +37604,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000527</t>
+          <t>ORD_0010699</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -37674,7 +37674,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000528</t>
+          <t>ORD_0010700</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -37744,7 +37744,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000529</t>
+          <t>ORD_0010701</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -37814,7 +37814,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000530</t>
+          <t>ORD_0010702</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -37888,7 +37888,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000531</t>
+          <t>ORD_0010703</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -37962,7 +37962,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000532</t>
+          <t>ORD_0010704</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -38032,7 +38032,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000533</t>
+          <t>ORD_0010705</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -38102,7 +38102,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000534</t>
+          <t>ORD_0010706</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -38172,7 +38172,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000535</t>
+          <t>ORD_0010707</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -38242,7 +38242,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000536</t>
+          <t>ORD_0010708</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -38312,7 +38312,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000537</t>
+          <t>ORD_0010709</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -38382,7 +38382,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000538</t>
+          <t>ORD_0010710</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -38452,7 +38452,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000539</t>
+          <t>ORD_0010711</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -38522,7 +38522,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000540</t>
+          <t>ORD_0010712</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -38592,7 +38592,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000541</t>
+          <t>ORD_0010713</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -38662,7 +38662,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000542</t>
+          <t>ORD_0010714</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -38732,7 +38732,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000543</t>
+          <t>ORD_0010715</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -38802,7 +38802,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000544</t>
+          <t>ORD_0010716</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -38872,7 +38872,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000545</t>
+          <t>ORD_0010717</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -38942,7 +38942,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000546</t>
+          <t>ORD_0010718</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -39012,7 +39012,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000547</t>
+          <t>ORD_0010719</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -39082,7 +39082,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000548</t>
+          <t>ORD_0010720</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -39152,7 +39152,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000549</t>
+          <t>ORD_0010721</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -39222,7 +39222,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000550</t>
+          <t>ORD_0010722</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -39292,7 +39292,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000551</t>
+          <t>ORD_0010723</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -39362,7 +39362,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000552</t>
+          <t>ORD_0010724</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -39436,7 +39436,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000553</t>
+          <t>ORD_0010725</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -39506,7 +39506,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000554</t>
+          <t>ORD_0010726</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -39576,7 +39576,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000555</t>
+          <t>ORD_0010727</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -39646,7 +39646,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000556</t>
+          <t>ORD_0010728</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -39716,7 +39716,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000557</t>
+          <t>ORD_0010729</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -39786,7 +39786,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000558</t>
+          <t>ORD_0010730</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -39856,7 +39856,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000559</t>
+          <t>ORD_0010731</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -39930,7 +39930,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000560</t>
+          <t>ORD_0010732</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -40000,7 +40000,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000561</t>
+          <t>ORD_0010733</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -40070,7 +40070,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000562</t>
+          <t>ORD_0010734</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -40140,7 +40140,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000563</t>
+          <t>ORD_0010735</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -40210,7 +40210,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000564</t>
+          <t>ORD_0010736</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -40280,7 +40280,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000565</t>
+          <t>ORD_0010737</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -40350,7 +40350,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000566</t>
+          <t>ORD_0010738</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -40420,7 +40420,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000567</t>
+          <t>ORD_0010739</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -40490,7 +40490,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000568</t>
+          <t>ORD_0010740</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -40560,7 +40560,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000569</t>
+          <t>ORD_0010741</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -40630,7 +40630,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000570</t>
+          <t>ORD_0010742</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -40704,7 +40704,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0010743</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -40774,7 +40774,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000572</t>
+          <t>ORD_0010744</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -40848,7 +40848,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000573</t>
+          <t>ORD_0010745</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -40918,7 +40918,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000574</t>
+          <t>ORD_0010746</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -40988,7 +40988,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0010747</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -41058,7 +41058,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000576</t>
+          <t>ORD_0010748</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -41128,7 +41128,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000577</t>
+          <t>ORD_0010749</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -41198,7 +41198,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000578</t>
+          <t>ORD_0010750</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -41268,7 +41268,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000579</t>
+          <t>ORD_0010751</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -41338,7 +41338,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000580</t>
+          <t>ORD_0010752</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -41408,7 +41408,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000581</t>
+          <t>ORD_0010753</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -41478,7 +41478,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000582</t>
+          <t>ORD_0010754</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -41548,7 +41548,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000583</t>
+          <t>ORD_0010755</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -41618,7 +41618,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000584</t>
+          <t>ORD_0010756</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -41688,7 +41688,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000585</t>
+          <t>ORD_0010757</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -41758,7 +41758,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000586</t>
+          <t>ORD_0010758</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -41828,7 +41828,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000587</t>
+          <t>ORD_0010759</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -41898,7 +41898,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000588</t>
+          <t>ORD_0010760</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -41972,7 +41972,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000589</t>
+          <t>ORD_0010761</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -42042,7 +42042,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000590</t>
+          <t>ORD_0010762</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -42112,7 +42112,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000591</t>
+          <t>ORD_0010763</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -42186,7 +42186,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>ORD_0000592</t>
+          <t>ORD_0010764</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -42256,7 +42256,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ORD_0000593</t>
+          <t>ORD_0010765</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -42326,7 +42326,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>ORD_0000594</t>
+          <t>ORD_0010766</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -42396,7 +42396,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ORD_0000595</t>
+          <t>ORD_0010767</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -42466,7 +42466,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0010768</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -42536,7 +42536,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ORD_0000597</t>
+          <t>ORD_0010769</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -42610,7 +42610,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0010770</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -42680,7 +42680,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>ORD_0000599</t>
+          <t>ORD_0010771</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -42750,7 +42750,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ORD_0000600</t>
+          <t>ORD_0010772</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -42820,7 +42820,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>ORD_0000601</t>
+          <t>ORD_0010773</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -42890,7 +42890,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>ORD_0000602</t>
+          <t>ORD_0010774</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -42964,7 +42964,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>ORD_0000603</t>
+          <t>ORD_0010775</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -43034,7 +43034,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ORD_0000604</t>
+          <t>ORD_0010776</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -43108,7 +43108,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>ORD_0000605</t>
+          <t>ORD_0010777</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -43178,7 +43178,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ORD_0000606</t>
+          <t>ORD_0010778</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -43248,7 +43248,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>ORD_0000607</t>
+          <t>ORD_0010779</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -43318,7 +43318,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>ORD_0000608</t>
+          <t>ORD_0010780</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -43388,7 +43388,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>ORD_0000609</t>
+          <t>ORD_0010781</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -43458,7 +43458,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ORD_0000610</t>
+          <t>ORD_0010782</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -43528,7 +43528,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>ORD_0000611</t>
+          <t>ORD_0010783</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -43598,7 +43598,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0010784</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -43672,7 +43672,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ORD_0000613</t>
+          <t>ORD_0010785</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -43746,7 +43746,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>ORD_0000614</t>
+          <t>ORD_0010786</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -43816,7 +43816,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>ORD_0000615</t>
+          <t>ORD_0010787</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -43890,7 +43890,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>ORD_0000616</t>
+          <t>ORD_0010788</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -43960,7 +43960,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ORD_0000617</t>
+          <t>ORD_0010789</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -44030,7 +44030,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>ORD_0000618</t>
+          <t>ORD_0010790</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -44100,7 +44100,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ORD_0000619</t>
+          <t>ORD_0010791</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -44170,7 +44170,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>ORD_0000620</t>
+          <t>ORD_0010792</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -44240,7 +44240,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>ORD_0000621</t>
+          <t>ORD_0010793</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -44310,7 +44310,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>ORD_0000622</t>
+          <t>ORD_0010794</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -44384,7 +44384,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>ORD_0000623</t>
+          <t>ORD_0010795</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -44454,7 +44454,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>ORD_0000624</t>
+          <t>ORD_0010796</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -44524,7 +44524,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>ORD_0000625</t>
+          <t>ORD_0010797</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -44598,7 +44598,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>ORD_0000626</t>
+          <t>ORD_0010798</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -44672,7 +44672,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>ORD_0000627</t>
+          <t>ORD_0010799</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -44742,7 +44742,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>ORD_0000628</t>
+          <t>ORD_0010800</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -44812,7 +44812,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>ORD_0000629</t>
+          <t>ORD_0010801</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -44886,7 +44886,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>ORD_0000630</t>
+          <t>ORD_0010802</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -44960,7 +44960,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>ORD_0000631</t>
+          <t>ORD_0010803</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -45030,7 +45030,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>ORD_0000632</t>
+          <t>ORD_0010804</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -45100,7 +45100,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>ORD_0000633</t>
+          <t>ORD_0010805</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -45170,7 +45170,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>ORD_0000634</t>
+          <t>ORD_0010806</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -45240,7 +45240,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>ORD_0000635</t>
+          <t>ORD_0010807</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -45310,7 +45310,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>ORD_0000636</t>
+          <t>ORD_0010808</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -45380,7 +45380,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>ORD_0000637</t>
+          <t>ORD_0010809</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -45450,7 +45450,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>ORD_0000638</t>
+          <t>ORD_0010810</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -45520,7 +45520,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>ORD_0000639</t>
+          <t>ORD_0010811</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -45590,7 +45590,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>ORD_0000640</t>
+          <t>ORD_0010812</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -45660,7 +45660,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>ORD_0000641</t>
+          <t>ORD_0010813</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -45730,7 +45730,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>ORD_0000642</t>
+          <t>ORD_0010814</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -45800,7 +45800,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>ORD_0000643</t>
+          <t>ORD_0010815</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -45870,7 +45870,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>ORD_0000644</t>
+          <t>ORD_0010816</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -45944,7 +45944,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>ORD_0000645</t>
+          <t>ORD_0010817</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -46014,7 +46014,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>ORD_0000646</t>
+          <t>ORD_0010818</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -46084,7 +46084,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>ORD_0000647</t>
+          <t>ORD_0010819</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -46154,7 +46154,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>ORD_0000648</t>
+          <t>ORD_0010820</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -46224,7 +46224,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>ORD_0000649</t>
+          <t>ORD_0010821</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -46294,7 +46294,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>ORD_0000650</t>
+          <t>ORD_0010822</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -46368,7 +46368,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>ORD_0000651</t>
+          <t>ORD_0010823</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -46438,7 +46438,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>ORD_0000652</t>
+          <t>ORD_0010824</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -46508,7 +46508,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>ORD_0000653</t>
+          <t>ORD_0010825</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -46578,7 +46578,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>ORD_0000654</t>
+          <t>ORD_0010826</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -46648,7 +46648,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>ORD_0000655</t>
+          <t>ORD_0010827</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -46718,7 +46718,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>ORD_0000656</t>
+          <t>ORD_0010828</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -46788,7 +46788,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ORD_0000657</t>
+          <t>ORD_0010829</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -46858,7 +46858,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>ORD_0000658</t>
+          <t>ORD_0010830</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -46928,7 +46928,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ORD_0000659</t>
+          <t>ORD_0010831</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -46998,7 +46998,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>ORD_0000660</t>
+          <t>ORD_0010832</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -47068,7 +47068,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>ORD_0000661</t>
+          <t>ORD_0010833</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -47138,7 +47138,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>ORD_0000662</t>
+          <t>ORD_0010834</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -47208,7 +47208,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>ORD_0000663</t>
+          <t>ORD_0010835</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -47278,7 +47278,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>ORD_0000664</t>
+          <t>ORD_0010836</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -47348,7 +47348,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>ORD_0000665</t>
+          <t>ORD_0010837</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -47418,7 +47418,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>ORD_0000666</t>
+          <t>ORD_0010838</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -47488,7 +47488,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>ORD_0000667</t>
+          <t>ORD_0010839</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -47558,7 +47558,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>ORD_0000668</t>
+          <t>ORD_0010840</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -47628,7 +47628,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>ORD_0000669</t>
+          <t>ORD_0010841</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -47698,7 +47698,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>ORD_0000670</t>
+          <t>ORD_0010842</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -47768,7 +47768,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>ORD_0000671</t>
+          <t>ORD_0010843</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -47838,7 +47838,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>ORD_0000672</t>
+          <t>ORD_0010844</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -47908,7 +47908,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>ORD_0000673</t>
+          <t>ORD_0010845</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -47982,7 +47982,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>ORD_0000674</t>
+          <t>ORD_0010846</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -48052,7 +48052,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>ORD_0000675</t>
+          <t>ORD_0010847</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -48122,7 +48122,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>ORD_0000676</t>
+          <t>ORD_0010848</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -48192,7 +48192,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>ORD_0000677</t>
+          <t>ORD_0010849</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -48262,7 +48262,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>ORD_0000678</t>
+          <t>ORD_0010850</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -48332,7 +48332,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>ORD_0000679</t>
+          <t>ORD_0010851</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -48402,7 +48402,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>ORD_0000680</t>
+          <t>ORD_0010852</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -48472,7 +48472,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>ORD_0000681</t>
+          <t>ORD_0010853</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -48542,7 +48542,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>ORD_0000682</t>
+          <t>ORD_0010854</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -48612,7 +48612,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>ORD_0000683</t>
+          <t>ORD_0010855</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -48686,7 +48686,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>ORD_0000684</t>
+          <t>ORD_0010856</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -48756,7 +48756,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>ORD_0000685</t>
+          <t>ORD_0010857</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -48826,7 +48826,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>ORD_0000686</t>
+          <t>ORD_0010858</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -48900,7 +48900,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>ORD_0000687</t>
+          <t>ORD_0010859</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -48974,7 +48974,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>ORD_0000688</t>
+          <t>ORD_0010860</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -49044,7 +49044,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>ORD_0000689</t>
+          <t>ORD_0010861</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -49114,7 +49114,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>ORD_0000690</t>
+          <t>ORD_0010862</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -49184,7 +49184,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>ORD_0000691</t>
+          <t>ORD_0010863</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -49254,7 +49254,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>ORD_0000692</t>
+          <t>ORD_0010864</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -49324,7 +49324,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>ORD_0000693</t>
+          <t>ORD_0010865</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -49394,7 +49394,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>ORD_0000694</t>
+          <t>ORD_0010866</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -49464,7 +49464,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>ORD_0000695</t>
+          <t>ORD_0010867</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -49534,7 +49534,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>ORD_0000696</t>
+          <t>ORD_0010868</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -49604,7 +49604,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>ORD_0000697</t>
+          <t>ORD_0010869</t>
         </is>
       </c>
       <c r="B698" t="n">
